--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.995596</v>
+        <v>28.743868</v>
       </c>
       <c r="H2">
-        <v>131.986788</v>
+        <v>86.231604</v>
       </c>
       <c r="I2">
-        <v>0.08241811124115486</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="J2">
-        <v>0.08241811124115485</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2520896666666667</v>
+        <v>0.05871566666666667</v>
       </c>
       <c r="N2">
-        <v>0.7562690000000001</v>
+        <v>0.176147</v>
       </c>
       <c r="O2">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="P2">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="Q2">
-        <v>11.09083513044133</v>
+        <v>1.687715372198667</v>
       </c>
       <c r="R2">
-        <v>99.81751617397201</v>
+        <v>15.189438349788</v>
       </c>
       <c r="S2">
-        <v>0.002877332292129519</v>
+        <v>0.0004631301875421085</v>
       </c>
       <c r="T2">
-        <v>0.002877332292129518</v>
+        <v>0.0004631301875421085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.995596</v>
+        <v>28.743868</v>
       </c>
       <c r="H3">
-        <v>131.986788</v>
+        <v>86.231604</v>
       </c>
       <c r="I3">
-        <v>0.08241811124115486</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="J3">
-        <v>0.08241811124115485</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.938378</v>
       </c>
       <c r="O3">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="P3">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="Q3">
-        <v>57.75709579442933</v>
+        <v>37.73473912203468</v>
       </c>
       <c r="R3">
-        <v>519.813862149864</v>
+        <v>339.612652098312</v>
       </c>
       <c r="S3">
-        <v>0.01498411570223356</v>
+        <v>0.01035488394211491</v>
       </c>
       <c r="T3">
-        <v>0.01498411570223355</v>
+        <v>0.01035488394211491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.995596</v>
+        <v>28.743868</v>
       </c>
       <c r="H4">
-        <v>131.986788</v>
+        <v>86.231604</v>
       </c>
       <c r="I4">
-        <v>0.08241811124115486</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="J4">
-        <v>0.08241811124115485</v>
+        <v>0.0554303735704667</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>16.967871</v>
       </c>
       <c r="O4">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="P4">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="Q4">
-        <v>248.837199165372</v>
+        <v>162.574081421676</v>
       </c>
       <c r="R4">
-        <v>2239.534792488348</v>
+        <v>1463.166732795084</v>
       </c>
       <c r="S4">
-        <v>0.0645566632467918</v>
+        <v>0.04461235944080968</v>
       </c>
       <c r="T4">
-        <v>0.06455666324679178</v>
+        <v>0.04461235944080968</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1319.462585</v>
       </c>
       <c r="I5">
-        <v>0.8239280291378236</v>
+        <v>0.848161237947095</v>
       </c>
       <c r="J5">
-        <v>0.8239280291378236</v>
+        <v>0.8481612379470951</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2520896666666667</v>
+        <v>0.05871566666666667</v>
       </c>
       <c r="N5">
-        <v>0.7562690000000001</v>
+        <v>0.176147</v>
       </c>
       <c r="O5">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="P5">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="Q5">
-        <v>110.8742944105961</v>
+        <v>25.82437510666611</v>
       </c>
       <c r="R5">
-        <v>997.8686496953651</v>
+        <v>232.419375959995</v>
       </c>
       <c r="S5">
-        <v>0.02876448742791733</v>
+        <v>0.007086531226368527</v>
       </c>
       <c r="T5">
-        <v>0.02876448742791733</v>
+        <v>0.007086531226368528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1319.462585</v>
       </c>
       <c r="I6">
-        <v>0.8239280291378236</v>
+        <v>0.848161237947095</v>
       </c>
       <c r="J6">
-        <v>0.8239280291378236</v>
+        <v>0.8481612379470951</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.938378</v>
       </c>
       <c r="O6">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="P6">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="Q6">
         <v>577.3936018430145</v>
@@ -818,10 +818,10 @@
         <v>5196.54241658713</v>
       </c>
       <c r="S6">
-        <v>0.1497951449383568</v>
+        <v>0.1584440193602095</v>
       </c>
       <c r="T6">
-        <v>0.1497951449383568</v>
+        <v>0.1584440193602095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1319.462585</v>
       </c>
       <c r="I7">
-        <v>0.8239280291378236</v>
+        <v>0.848161237947095</v>
       </c>
       <c r="J7">
-        <v>0.8239280291378236</v>
+        <v>0.8481612379470951</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>16.967871</v>
       </c>
       <c r="O7">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="P7">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="Q7">
         <v>2487.607881289615</v>
@@ -880,10 +880,10 @@
         <v>22388.47093160653</v>
       </c>
       <c r="S7">
-        <v>0.6453683967715494</v>
+        <v>0.6826306873605169</v>
       </c>
       <c r="T7">
-        <v>0.6453683967715494</v>
+        <v>0.682630687360517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.99334866666667</v>
+        <v>49.99334866666666</v>
       </c>
       <c r="H8">
         <v>149.980046</v>
       </c>
       <c r="I8">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="J8">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2520896666666667</v>
+        <v>0.05871566666666667</v>
       </c>
       <c r="N8">
-        <v>0.7562690000000001</v>
+        <v>0.176147</v>
       </c>
       <c r="O8">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="P8">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="Q8">
-        <v>12.60280660093045</v>
+        <v>2.935392795862444</v>
       </c>
       <c r="R8">
-        <v>113.425259408374</v>
+        <v>26.418535162762</v>
       </c>
       <c r="S8">
-        <v>0.003269588085823186</v>
+        <v>0.0008055084633651723</v>
       </c>
       <c r="T8">
-        <v>0.003269588085823186</v>
+        <v>0.0008055084633651723</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.99334866666667</v>
+        <v>49.99334866666666</v>
       </c>
       <c r="H9">
         <v>149.980046</v>
       </c>
       <c r="I9">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="J9">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.938378</v>
       </c>
       <c r="O9">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="P9">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="Q9">
         <v>65.63090151170978</v>
       </c>
       <c r="R9">
-        <v>590.678113605388</v>
+        <v>590.6781136053879</v>
       </c>
       <c r="S9">
-        <v>0.01702684334048883</v>
+        <v>0.01800993948765066</v>
       </c>
       <c r="T9">
-        <v>0.01702684334048883</v>
+        <v>0.01800993948765066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.99334866666667</v>
+        <v>49.99334866666666</v>
       </c>
       <c r="H10">
         <v>149.980046</v>
       </c>
       <c r="I10">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="J10">
-        <v>0.09365385962102149</v>
+        <v>0.09640838848243828</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>16.967871</v>
       </c>
       <c r="O10">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="P10">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="Q10">
         <v>282.760230344674</v>
@@ -1066,10 +1066,10 @@
         <v>2544.842073102066</v>
       </c>
       <c r="S10">
-        <v>0.07335742819470947</v>
+        <v>0.07759294053142245</v>
       </c>
       <c r="T10">
-        <v>0.07335742819470947</v>
+        <v>0.07759294053142245</v>
       </c>
     </row>
   </sheetData>
